--- a/excel/turn 15.14.38.xlsx
+++ b/excel/turn 15.14.38.xlsx
@@ -1,31 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22413"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D354F73-26AE-41C4-B3F7-A7CEB294B204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="room" sheetId="1" r:id="rId1"/>
+    <sheet name="room" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>turn</t>
   </si>
@@ -33,7 +19,7 @@
     <t>time_begin</t>
   </si>
   <si>
-    <t>1</t>
+    <t>adfd</t>
   </si>
   <si>
     <t>7h00</t>
@@ -120,13 +106,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[h]&quot;h&quot;"/>
+    <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -251,108 +247,72 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -478,7 +438,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -487,7 +447,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -496,7 +456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -570,7 +530,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -578,7 +538,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -597,7 +557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -627,7 +587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -653,7 +613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -679,7 +639,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -705,7 +665,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,7 +691,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,7 +717,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -783,7 +743,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,7 +769,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +795,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,15 +808,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -871,7 +825,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -879,7 +833,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -898,7 +852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,7 +878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,7 +904,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +956,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +982,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1008,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,7 +1060,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,7 +1086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,15 +1099,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1167,7 +1115,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1186,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,7 +1164,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1268,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1346,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1437,287 +1385,283 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="14.85" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="14.85" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.65" customHeight="1">
+    <row r="1" ht="14.65" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s" s="4">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s" s="4">
         <v>1</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1">
+    <row r="2" ht="14.45" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" ht="14.45" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="14.45" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="14.45" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="14.45" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="14.45" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" ht="14.45" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" ht="14.45" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="14.45" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" ht="14.45" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" ht="14.45" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>11</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" ht="14.45" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="14.45" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>13</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" ht="14.45" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>14</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" ht="14.45" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>15</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" ht="14.45" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" t="s" s="8">
         <v>25</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" ht="14.45" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>17</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" ht="14.45" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>18</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" ht="14.45" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>19</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" ht="14.45" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" t="s" s="8">
         <v>29</v>
       </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.45" customHeight="1">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" ht="14.45" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" ht="14.45" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/excel/turn 15.14.38.xlsx
+++ b/excel/turn 15.14.38.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>turn</t>
   </si>
@@ -19,49 +19,25 @@
     <t>time_begin</t>
   </si>
   <si>
-    <t>adfd</t>
-  </si>
-  <si>
     <t>7h00</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>7h30</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>8h00</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>8h30</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>9h00</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>9h30</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>10h00</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>10h30</t>
@@ -147,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,21 +134,6 @@
     <border>
       <left style="thin">
         <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -193,7 +154,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -230,21 +191,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -258,31 +204,31 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1415,249 +1361,249 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.65" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" t="s" s="4">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="14.45" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" t="s" s="8">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" ht="14.45" customHeight="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="14.45" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="14.45" customHeight="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="14.45" customHeight="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" ht="14.45" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" t="s" s="8">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="14.45" customHeight="1">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="14.45" customHeight="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" ht="14.45" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" t="s" s="8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="14.45" customHeight="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="8">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="14.45" customHeight="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" ht="14.45" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" t="s" s="8">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="14.45" customHeight="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" ht="14.45" customHeight="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" ht="14.45" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" t="s" s="8">
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" ht="14.45" customHeight="1">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="D7" t="s" s="8">
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" ht="14.45" customHeight="1">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" ht="14.45" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" t="s" s="8">
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" ht="14.45" customHeight="1">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="D8" t="s" s="8">
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" ht="14.45" customHeight="1">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" ht="14.45" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" t="s" s="8">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" ht="14.45" customHeight="1">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D9" t="s" s="8">
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" ht="14.45" customHeight="1">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" ht="14.45" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s" s="8">
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" ht="14.45" customHeight="1">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" ht="14.45" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s" s="8">
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" ht="14.45" customHeight="1">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" ht="14.45" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="8">
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" ht="14.45" customHeight="1">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" ht="14.45" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="8">
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" ht="14.45" customHeight="1">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" ht="14.45" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" ht="14.45" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" ht="14.45" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" ht="14.45" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" ht="14.45" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" ht="14.45" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" ht="14.45" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" ht="14.45" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="E21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" ht="14.45" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" ht="14.45" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
